--- a/210312_汇率期权.xlsx
+++ b/210312_汇率期权.xlsx
@@ -541,10 +541,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上海FTU_GM1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000023868</t>
   </si>
   <si>
@@ -557,6 +553,10 @@
   </si>
   <si>
     <t>GBR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM_151</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2173,7 +2173,7 @@
         <v>41</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="11" customFormat="1" x14ac:dyDescent="0.15">
@@ -2229,23 +2229,23 @@
         <v>35</v>
       </c>
       <c r="R3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="U3" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="V3" s="12"/>
       <c r="W3" s="12" t="s">
         <v>41</v>
       </c>
       <c r="X3" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
